--- a/Computing Practice - comp1004/1 - Planning/Sprint backlog/Sprint backlog table.xlsx
+++ b/Computing Practice - comp1004/1 - Planning/Sprint backlog/Sprint backlog table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Github\HTML-CSS-and-JAVA\Computing Practice - comp1004\1 - Planning\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Github\COMP1004 - HTML-CSS-and-JAVA\Computing Practice - comp1004\1 - Planning\Sprint backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{132DDA92-EA17-4382-A7D8-2077F96C5796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630B8107-6475-4014-BF24-D890973B0062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5BC79AD4-BCD0-4F44-BA86-801BFBD84420}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
   <si>
     <t>Tasks to take place</t>
   </si>
@@ -68,10 +68,60 @@
 •	Develop initial prototype for home page</t>
   </si>
   <si>
-    <t>•	Currently no issues</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Overall successful. The game design document had now been completed, alongside the product backlog, so now tasks can be planned more effectively meaning deadlines will not be missed. Issues and challenges have been researched and noted down to make sure that they can be tackled easier if they appear. The initial prototype is now the priority to get completed so that an overall idea for the game can be shown. </t>
+    <t xml:space="preserve">Another successful meeting. With the game design document being complete, alongside the product backlog, I can now plan tasks more effectively meaning deadlines will not be missed. Issues and challenges have been researched and noted down to make sure that they can be tackled easier if they appear. The initial prototype is now the priority to get completed so that an overall idea for the game can be shown. </t>
+  </si>
+  <si>
+    <t>•Home page functionality</t>
+  </si>
+  <si>
+    <t>•Create game prototype – ball and hole (collision)
+•Add levels score to canvas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have reviewed the basic initial homepage which has now been created and allows the user to get onto the game page. My first design included a lot of code and was not practical enough as it didn’t work effectively, therefore I had to redesign it to make it more simple. The design may change in future but is a good starting point as discussed. The basic UML diagrams have also been completed, which includes a simple version of the user cases and class diagrams. The project is progressing as planned without any issues so far, however challenges may arise whilst starting to create the game, which I am prepared to address as they emerge. Meeting was successful. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•Get the ball to move efficiently 
+•Create objects (water and sand) 
+•Create functionality for the score </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•Ball moving mechanic difficult to implement without physics engine and is buggy
+•Levels score added but doesn’t function </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ball does not move properly with how I visioned so a different method of making the ball move was discussed. This set back has been acknowledged and needs to be resolved soon to stay on track. However, for the little functionality that it does have, it can collide with the hole and spawn back at the starting position. Additionally, the score for each level has been drawn onto the canvas but no functionality works as of yet. An implementation for this has been reviewed and will be worked upon between the next sprint. </t>
+  </si>
+  <si>
+    <t>•Ball and obstacle collision (give player a disadvantage?)
+•Create borders on the canvas
+•Spawn sand and water random places each level
+•Add another object to make it more challenging (wall?)</t>
+  </si>
+  <si>
+    <t>•Ball goes out of canvas and comes back through other side, barriers need to be created
+•Ball goes underneath sand and water and does nothing, not sure what to do with the collision
+•Sand and water is spawned in same place every time ball goes in hole</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The meeting was productive with a lot of issues being raised and discussed to try and get resolved. Ball now has a dragging mechanism which is unique and effective. Ball does not collide with the sand and water and also doesn’t seem challenging enough so a wall needs to be added as well. The obstacles spawn will be randomized per level so that it is not boring for the player. Barriers need to be created to stop the ball leaving the canvas. The on screen score also works now so the player can track how they are doing each level. These issues have caused a deviation from the plan but resolving them will restore the progress of the project. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•Create leaderboard which tracks name, score and mins spent playing (json)
+•Create an options page showing controls etc
+•Add sound to the game 
+•Create exit or restart game button </t>
+  </si>
+  <si>
+    <t>•No issues have been raised.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The game was reviewed and everything that I was struggling to implement has been implemented correctly and efficiently. The main functionality of the game is now complete. The score for the game now needs to be tracked using a leaderboard. Some extra features of including the control in the options menu will also help the player understand the game. I have also discussed that sounds should be added to the game, to make it more interesting for the player. These are only little details that I have left to add and should mean that the game will be completed before the next sprint. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">•Touch up on any details that need to be improved
+•Add some bonus details to make the game more fun (color picker and time limit)
+•Test the game completely to make sure everything works </t>
   </si>
 </sst>
 </file>
@@ -79,7 +129,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yy;@"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yy;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -137,29 +187,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="5"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="5"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -178,9 +221,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -218,7 +261,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -324,7 +367,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -466,7 +509,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -474,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA5CEF5-34FB-4995-AC0E-1736528F3859}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A2:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -486,135 +529,164 @@
     <col min="5" max="5" width="69.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-    </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B3" s="2">
         <v>45259</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
+      <c r="B4" s="2">
         <v>45273</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45322</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="E5" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="B6" s="2">
+        <v>45336</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+      <c r="B7" s="2">
+        <v>45350</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+      <c r="B8" s="2">
+        <v>45364</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="B9" s="2">
+        <v>45397</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Computing Practice - comp1004/1 - Planning/Sprint backlog/Sprint backlog table.xlsx
+++ b/Computing Practice - comp1004/1 - Planning/Sprint backlog/Sprint backlog table.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Github\COMP1004 - HTML-CSS-and-JAVA\Computing Practice - comp1004\1 - Planning\Sprint backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{630B8107-6475-4014-BF24-D890973B0062}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFDC5F4-A239-4FCB-A98C-B78A78695A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5BC79AD4-BCD0-4F44-BA86-801BFBD84420}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
   <si>
     <t>Tasks to take place</t>
   </si>
@@ -116,12 +116,18 @@
     <t>•No issues have been raised.</t>
   </si>
   <si>
-    <t xml:space="preserve">The game was reviewed and everything that I was struggling to implement has been implemented correctly and efficiently. The main functionality of the game is now complete. The score for the game now needs to be tracked using a leaderboard. Some extra features of including the control in the options menu will also help the player understand the game. I have also discussed that sounds should be added to the game, to make it more interesting for the player. These are only little details that I have left to add and should mean that the game will be completed before the next sprint. </t>
-  </si>
-  <si>
     <t xml:space="preserve">•Touch up on any details that need to be improved
 •Add some bonus details to make the game more fun (color picker and time limit)
 •Test the game completely to make sure everything works </t>
+  </si>
+  <si>
+    <t>•	No issues need to be raised</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The game is now complete with a few touch ups left to do. Everything has been reviewed and I am happy with how it has turned out. The final version of the game is slightly different to how I planned due to issues, which I had expected and planned for. I have created an options menu to finish the game which shows the controls for the game and there is also an extra feature that lets you customize the ball color which I had not planned for in the sprints. Originally I wanted there to be a character customization in the game, but as discussed in the meeting, it was not possible due to time and would’ve created more issues. I have add some sound effects and background game music which adds more excitement to the game. The leaderboard also works effectively letting the user enter the name, which tracks their score and minutes spent playing. An exit button has also been added to the leaderboard and I have spoke about maybe adding a restart button in the game if I have time left, as well as some more features in the options menu. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The game was reviewed and everything that I was struggling to implement has been implemented correctly. The main functionality of the game is now complete. The score for the game now needs to be tracked using a leaderboard. Some extra features of including the control in the options menu will also help the player understand the game. I have also discussed that sounds should be added to the game, to make it more interesting for the player. These are only little details that I have left to add and should mean that the game will be completed before the next sprint. </t>
   </si>
 </sst>
 </file>
@@ -519,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA5CEF5-34FB-4995-AC0E-1736528F3859}">
   <dimension ref="A2:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -645,10 +651,10 @@
         <v>20</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -656,10 +662,14 @@
         <v>45397</v>
       </c>
       <c r="C9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="E9" s="3" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">

--- a/Computing Practice - comp1004/1 - Planning/Sprint backlog/Sprint backlog table.xlsx
+++ b/Computing Practice - comp1004/1 - Planning/Sprint backlog/Sprint backlog table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matthew\Github\COMP1004 - HTML-CSS-and-JAVA\Computing Practice - comp1004\1 - Planning\Sprint backlog\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\Comp-1004---Computing-Practice\Computing Practice - comp1004\1 - Planning\Sprint backlog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAFDC5F4-A239-4FCB-A98C-B78A78695A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DECEDC39-A71F-4CAA-A92E-B45DC61FC14F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{5BC79AD4-BCD0-4F44-BA86-801BFBD84420}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" xr2:uid="{5BC79AD4-BCD0-4F44-BA86-801BFBD84420}"/>
   </bookViews>
   <sheets>
     <sheet name="Sprints" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>Tasks to take place</t>
   </si>
@@ -128,6 +128,15 @@
   </si>
   <si>
     <t xml:space="preserve">The game was reviewed and everything that I was struggling to implement has been implemented correctly. The main functionality of the game is now complete. The score for the game now needs to be tracked using a leaderboard. Some extra features of including the control in the options menu will also help the player understand the game. I have also discussed that sounds should be added to the game, to make it more interesting for the player. These are only little details that I have left to add and should mean that the game will be completed before the next sprint. </t>
+  </si>
+  <si>
+    <t>•	No tasks to take place</t>
+  </si>
+  <si>
+    <t xml:space="preserve">•	No issues need to be raised. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everything has been tested to ensure that it is all functioning as it should. I am very happy with the outcome of the whole project and was pleased to discuss in the meeting that everything for the project is now completed. My dedication towards the game and the feedback form each meeting has resulted in successful sprints, which has led to a successful game. </t>
   </si>
 </sst>
 </file>
@@ -523,19 +532,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA5CEF5-34FB-4995-AC0E-1736528F3859}">
-  <dimension ref="A2:E12"/>
+  <dimension ref="A2:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="4" width="27.77734375" customWidth="1"/>
-    <col min="5" max="5" width="69.109375" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" customWidth="1"/>
+    <col min="2" max="2" width="8.796875" customWidth="1"/>
+    <col min="3" max="3" width="52.1328125" customWidth="1"/>
+    <col min="4" max="4" width="39.796875" customWidth="1"/>
+    <col min="5" max="5" width="123.06640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -552,7 +564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="64.900000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -569,7 +581,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="91.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="33.4" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -586,7 +598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="77.650000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -603,7 +615,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="61.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -620,7 +632,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="144" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="87" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -637,7 +649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="72.400000000000006" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -654,12 +666,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="187.2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="106.9" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9" s="2">
-        <v>45397</v>
+        <v>45378</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
@@ -671,32 +683,22 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="49.15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" s="2"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="B10" s="2">
+        <v>45392</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>27</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
